--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_6.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,696 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
-        </is>
+          <t>isophonics_139</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_231</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.104371097234612</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['D', 'G', 'C'], ['C', 'D', 'D'], ['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(4.26, 8.68)]</t>
+          <t>[['D/5', 'G', 'C'], ['C', 'D', 'D/b7'], ['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[('0:00:53.176848', '0:00:58.331678'), ('0:01:02.093310', '0:01:08.467188'), ('0:00:51.853310', '0:00:57.054580')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:38.435396', '0:00:43.311587'), ('0:00:34.499614', '0:00:37.436938'), ('0:00:17.014988', '0:00:20.892721')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_205</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08760545100584036</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A#:min/C#', 'F:min/C', 'C:7', 'F:min']]</t>
+          <t>[['B:min', 'E', 'E/2']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(18.64, 28.9)]</t>
+          <t>[['G:min/A#', 'C:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(43.38, 45.8)]</t>
+          <t>[('0:00:59.162887', '0:01:05.559465')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:09.640000', '0:00:11.780000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>schubert-winterreise_61</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+      <c r="D4" t="n">
+        <v>0.05796064400715564</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(97.62, 113.78)]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(9.7, 15.02)]</t>
+          <t>[('0:00:00.820000', '0:00:06.760000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>[('0:00:42.440000', '0:00:44.360000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78), (31.34, 33.52)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(12.54, 25.94), (69.24, 75.88)]</t>
+          <t>[('0:00:00.260000', '0:00:07.820000'), ('0:00:55.680000', '0:01:02.280000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:01:06.920000', '0:01:08.180000'), ('0:01:05.200000', '0:01:07.500000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.06976744186046512</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(7.8, 13.9)]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(17.86, 28.3)]</t>
+          <t>[('0:00:13.600000', '0:00:17.780000'), ('0:00:31.340000', '0:00:33.520000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:10.760000', '0:00:23.600000'), ('0:01:02.860000', '0:01:08.740000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.07334525939177103</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(9.56, 32.44)]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(44.18, 61.66)]</t>
+          <t>[('0:00:31.340000', '0:00:33.520000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:36.400000', '0:00:41.700000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(90.92, 100.48)]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(35.22, 42.42)]</t>
+          <t>[('0:00:21.080000', '0:00:24.960000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:03:49.340000', '0:04:05.220000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(1.64, 6.7)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(13.42, 26.46)]</t>
+          <t>[('0:00:24.280000', '0:00:44.360000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:01.460000', '0:00:11.260000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D#:7', 'G#:maj/D#', 'D#:7', 'G#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(108.54, 120.72)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(90.14, 98.78)]</t>
+          <t>[('0:00:16.340000', '0:00:44.360000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:01:10.380000', '0:01:30.980000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(97.88, 108.98), (47.58, 50.04)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(25.48, 32.76), (74.8, 81.06)]</t>
+          <t>[('0:00:14.520000', '0:00:59.640000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:12.820000', '0:00:52.640000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>isophonics_52</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4357142857142857</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
+          <t>[['G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(5.7, 12.08)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(19.36, 22.38)]</t>
+          <t>[('0:00:16.341609', '0:00:23.354036')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_49</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_41</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['A:min', 'E:7/B', 'A:min/C', 'A:maj/C#', 'D:min', 'B:hdim7', 'A:min', 'A#:maj', 'F:maj/A', 'E:7', 'F:maj'], ['A:7/G', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min', 'A:min/E']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(83.1, 90.02)]</t>
+          <t>[('0:00:00.340000', '0:00:08.840000'), ('0:01:11.800000', '0:01:19.080000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:00.660000', '0:00:09.200000'), ('0:01:13.180000', '0:01:20.700000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(40.38, 42.28)]</t>
+          <t>[('0:00:31.260000', '0:00:45.880000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:16.560000', '0:00:45.260000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(2.86, 5.3), (0.38, 3.7)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86), (26.2, 33.96)]</t>
+          <t>[('0:01:47.100000', '0:01:51.480000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:02:00.400000', '0:02:07.200000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(35.82, 37.76)]</t>
+          <t>[('0:01:22.240000', '0:01:29.660000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_224</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1120923913043478</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'E']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(55.002834, 59.124376)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(40.34, 42.74)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:20.920000', '0:01:29.040000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
